--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_기출의지혜_한자어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_기출의지혜_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,14 +575,197 @@
           <t>보고</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20221205</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="D7" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>曲折</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>굴절</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>수용</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>儒敎</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>유교</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>敎養</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>유교</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20221206</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
